--- a/fractals_3d/data/data_14.xlsx
+++ b/fractals_3d/data/data_14.xlsx
@@ -60,9 +60,6 @@
     <t>black</t>
   </si>
   <si>
-    <t>#C5E384</t>
-  </si>
-  <si>
     <t>BA(0, 0)</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>#CCCCFF</t>
   </si>
 </sst>
 </file>
@@ -906,7 +906,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -966,10 +966,10 @@
         <v>90</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="F2" s="1">
         <v>5</v>
@@ -978,13 +978,13 @@
         <v>90</v>
       </c>
       <c r="H2" s="1">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1">
         <v>2</v>
@@ -993,12 +993,12 @@
         <v>0</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
